--- a/src/main/java/utils/TestData.xlsx
+++ b/src/main/java/utils/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
   <si>
     <t>TestCases</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>IPC@Zen2023</t>
+  </si>
+  <si>
+    <t>Bluetooth Headphone</t>
+  </si>
+  <si>
+    <t>Blutooth Headphone</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1092,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1156,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
